--- a/AWQP Water Processing ID Key_2025.xlsx
+++ b/AWQP Water Processing ID Key_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\GitHub\ALS-Data-Cleaning-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66698630-E54B-4BAB-A9DC-7A1D76CF5F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5ED64-21D9-4D79-8EBE-A27115C47507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{80777274-BFA3-44C9-A50F-B90CEE9B5D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{80777274-BFA3-44C9-A50F-B90CEE9B5D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="6" r:id="rId1"/>
@@ -1065,9 +1065,6 @@
     <t>Fruita F4</t>
   </si>
   <si>
-    <t>Fruita Fertilizer (Waters)</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>as of 6 March 2025</t>
+  </si>
+  <si>
+    <t>Fruita Fertilizer</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5150FAAD-75A4-4303-8388-1924B1E28A85}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2054,8 +2054,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2289,7 @@
         <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>112</v>
@@ -2314,7 +2314,7 @@
         <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
@@ -2336,7 +2336,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
@@ -2358,7 +2358,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="29" t="s">
@@ -2377,10 +2377,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="43" t="s">
@@ -2393,10 +2393,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="29" t="s">
@@ -2405,18 +2405,18 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
         <v>113</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>63</v>
@@ -2450,10 +2450,10 @@
         <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>66</v>
@@ -2635,7 +2635,7 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Bold"&amp;16AWQP Water Sample Processing Label Key for 2025
 </oddHeader>
-    <oddFooter>&amp;LFor questions, please contact Emmanuel Deleon (E.Deleon@colostate.edu) or A.J. Brown (Ansley.Brown@colostate.edu)</oddFooter>
+    <oddFooter>&amp;LFor questions, please contact Emmanuel Deleon (E.Deleon@colostate.edu), A.J. Brown (Ansley.Brown@colostate.edu), or Jake Ladow (JLadow@colostate.edu)</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6403,17 +6403,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678F2DA36292A241BB6B602A04ACAAD9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e65193b06eae86f79c3903a4a9f0dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="167cb1e9-24b5-43e0-9f5d-14a54474cc90" xmlns:ns3="fbf6f0f6-9634-473c-8838-2f74fc79f714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="03593a2a675d04ffa4dc626c9c15704c" ns2:_="" ns3:_="">
     <xsd:import namespace="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
@@ -6668,6 +6657,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6678,17 +6678,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6928EB07-F497-4032-8701-AD7E4A30F74A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
-    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0474098-CD96-40F4-8A28-4082780E5EB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6707,6 +6696,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6928EB07-F497-4032-8701-AD7E4A30F74A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
+    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A9A0347-3472-4A1D-8404-53EC21279416}">
   <ds:schemaRefs>
